--- a/Pytest_API/testcase/t_excel/api tc.xlsx
+++ b/Pytest_API/testcase/t_excel/api tc.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -103,7 +103,7 @@
     <t>"name":"chai", "email"；"chai@excample.com"</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Y</t>
   </si>
   <si>
     <t>SELECT id FROM users WHERE email=%s</t>
@@ -1102,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1240,9 +1240,7 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2">
@@ -1272,9 +1270,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2">
